--- a/生产数据测试表.xlsx
+++ b/生产数据测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\code\yunying-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6AE947-987D-4F25-9360-5DF3083DFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009ADA8E-98B9-434C-BE4E-E8472D0E1A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="12940" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="12940" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +108,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,10 +392,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -428,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>45306.333333333336</v>
+        <v>45672</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -451,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>45306.333333333336</v>
+        <v>45672</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -474,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>45306.333333333336</v>
+        <v>45672</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -497,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>45307.333333333336</v>
+        <v>45673</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -520,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>45307.333333333336</v>
+        <v>45673</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -543,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>45307.333333333336</v>
+        <v>45673</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -566,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>45308.333333333336</v>
+        <v>45674</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -589,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>45308.333333333336</v>
+        <v>45674</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -612,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>45308.333333333336</v>
+        <v>45674</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -635,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>45309.333333333336</v>
+        <v>45675</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
